--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orian\PycharmProjects\Quiz_Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600048d8b9b78643/Área de Trabalho/Projeto do jogo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD67677-DB84-44EC-A8E0-37D50A3DD16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{FAD67677-DB84-44EC-A8E0-37D50A3DD16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E21384-019A-4FAB-8C87-338D91F59117}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F9CFB2ED-0152-4FB4-AF95-4189C19E639B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9CFB2ED-0152-4FB4-AF95-4189C19E639B}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Cadastro" sheetId="2" r:id="rId3"/>
     <sheet name="Ranking" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -38,73 +36,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+  <si>
+    <t>perguntas</t>
+  </si>
+  <si>
+    <t>alternativas</t>
+  </si>
+  <si>
+    <t>Seres mitológicos que são uma espécie de fera e possuíam o corpo composto por partes de dois animais:</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Era representado com cabeça e tronco humano com rabo de peixe. Usava um tridente e habitava as profundezas do mar:</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imortais, belas e sempre ligadas à natureza, eram divindades menores, nem tão poderosas quanto os deuses olímpicos, mas muito superiores aos mortais: </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>A:Quimeras/B:Tritões/C:Sereias</t>
+  </si>
+  <si>
+    <t>A:Quimeras/B:Ninfas/C:Sereias</t>
+  </si>
   <si>
     <t>número</t>
   </si>
   <si>
-    <t>perguntas</t>
-  </si>
-  <si>
-    <t>alternativas</t>
-  </si>
-  <si>
-    <t>resposta certa</t>
-  </si>
-  <si>
-    <t>Seres mitológicos que são uma espécie de fera e possuíam o corpo composto por partes de dois animais:</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Era representado com cabeça e tronco humano com rabo de peixe. Usava um tridente e habitava as profundezas do mar:</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imortais, belas e sempre ligadas à natureza, eram divindades menores, nem tão poderosas quanto os deuses olímpicos, mas muito superiores aos mortais: </t>
-  </si>
-  <si>
-    <t>Gigantes de força descomunal e com um só olho no meio da testa:</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Uma bela mulher com rabo de peixe:</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Senha</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>A:Quimeras/B:Tritões/C:Sereias</t>
-  </si>
-  <si>
-    <t>A:Quimeras/B:Ninfas/C:Sereias</t>
-  </si>
-  <si>
-    <t>A:Quimeras/B:Ninfas/C:Ciclopes</t>
-  </si>
-  <si>
-    <t>A:Sereias/B:Ninfas/C:Ciclopes</t>
+    <t>Quais os 3 deuses principais?</t>
+  </si>
+  <si>
+    <t>A:Zeus,Atena e Hera/B:Zeus, Hades e Poseidon/C:Perseu, Hércules e Annabeth</t>
+  </si>
+  <si>
+    <t>Quais os nomes dos dois filhos de Nix e Érebos?</t>
+  </si>
+  <si>
+    <t>fácil</t>
+  </si>
+  <si>
+    <t>dificil</t>
+  </si>
+  <si>
+    <t>A:Éter e Hemera/B:Cronos e Atlas/C:Odin e Thor</t>
+  </si>
+  <si>
+    <t>Quem é carontes?</t>
+  </si>
+  <si>
+    <t>A:Cão de 5 cabeças/B:Hydra/C:Barqueiro do Mundo dos Mortos</t>
+  </si>
+  <si>
+    <t>Quem é mãe de Apolo e Ártemis?</t>
+  </si>
+  <si>
+    <t>A:Leto/B:Hera/C:Atena</t>
+  </si>
+  <si>
+    <t>Com quem Afrodite traía Hefesto?</t>
+  </si>
+  <si>
+    <t>A:Poseidon/B:Cronos/C:Ares</t>
+  </si>
+  <si>
+    <t>Por qual motivo Ártemis se tornou protetora dos recém-nascidos?</t>
+  </si>
+  <si>
+    <t>A:Teve filhos com todos os deuses/B:Teve vários filhos com humanos/C:Ajudou sua mãe a parir seu irmão gêmeo</t>
+  </si>
+  <si>
+    <t>De qual deus da mitologia grega Perseu é filho?</t>
+  </si>
+  <si>
+    <t>A:Poseidon/B:Apolo/C:Zeus</t>
+  </si>
+  <si>
+    <t>Quem era a deusa grega da vingança e da justiça distributiva?</t>
+  </si>
+  <si>
+    <t>A:Nêmesis/B:Atena/C:Íris</t>
+  </si>
+  <si>
+    <t>Quais são os nomes dos filhos gêmeos de Afrodite e Ares?</t>
+  </si>
+  <si>
+    <t>A:Aquiles e Hércules/B:Fobos e Deimos/C:Anteros e Eros</t>
+  </si>
+  <si>
+    <t>Quem projetou o labirinto para o minotauro, ser metade homem, metade touro, na cidade de Creta?</t>
+  </si>
+  <si>
+    <t>A:Ícaro/B:Dédalo/C:Ariadne</t>
+  </si>
+  <si>
+    <t>dificuldade</t>
+  </si>
+  <si>
+    <t>Qual é a origem do atlas geográfico?</t>
+  </si>
+  <si>
+    <t>A:Atlas era o nome da montanha onde os deuses moravam/B:Atlas é o livro dos segredos dos deuses/C:Atlas foi o titã obrigado a sustentar o céu nos ombros</t>
+  </si>
+  <si>
+    <t>Qual deus grego está relacionado à palavra "letargia"?</t>
+  </si>
+  <si>
+    <t>A:Zeus/B:Atena/C:Hades</t>
+  </si>
+  <si>
+    <t>resposta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,20 +185,46 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Bodoni MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bodoni MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bodoni MT"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,24 +232,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,117 +581,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B08E78-FD8B-415A-9F82-296F25FB394D}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="165.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -600,10 +892,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -623,10 +915,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +938,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600048d8b9b78643/Área de Trabalho/Projeto do jogo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpaul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{FAD67677-DB84-44EC-A8E0-37D50A3DD16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E21384-019A-4FAB-8C87-338D91F59117}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2AF618-2FBD-4008-B2BB-5692C2381328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9CFB2ED-0152-4FB4-AF95-4189C19E639B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>perguntas</t>
   </si>
@@ -165,6 +165,66 @@
   </si>
   <si>
     <t>resposta</t>
+  </si>
+  <si>
+    <t>Semideuses são:</t>
+  </si>
+  <si>
+    <t>A:Filhos gerados a partir da união de deuses/B:Mortais promovidos/C:Filhos gerados a partir da união de deuses com mortais</t>
+  </si>
+  <si>
+    <t>Surgiram das narrativas gregas, onde os deuses eram homenageados por meio de jogos e competições esportivas realizados no Monte Olimpo:</t>
+  </si>
+  <si>
+    <t>A:Olimpíadas/B:Eleições/C:Guerra</t>
+  </si>
+  <si>
+    <t>Para se livrarem dos problemas ou mesmo para saber do futuro, os gregos os consultavam para que interpretassem a vontade dos deuses.</t>
+  </si>
+  <si>
+    <t>A:Cartas/B:Oráculos/C:Previão do tempo</t>
+  </si>
+  <si>
+    <t>Objeto que faz parte da mitologia grega:</t>
+  </si>
+  <si>
+    <t>A:Celular/B:Caixa de Pandora/C:Xadrez</t>
+  </si>
+  <si>
+    <t>A:Narciso/B:Ares/C:Cronos</t>
+  </si>
+  <si>
+    <t>Filho do deus do rio Cefiso e da ninfa Liríope:</t>
+  </si>
+  <si>
+    <t>Deus do amor:</t>
+  </si>
+  <si>
+    <t>A:Eros/B:Hades/C:Poseidon</t>
+  </si>
+  <si>
+    <t>Ela é a rainha do submundo:</t>
+  </si>
+  <si>
+    <t>A:Perséfone/B:Têmis/C:Horas</t>
+  </si>
+  <si>
+    <t>Belerofonte era um herói e sozinho matou a:</t>
+  </si>
+  <si>
+    <t>A:Medusa/B:Quimera/C:Hera</t>
+  </si>
+  <si>
+    <t>Comandante da guerra de Troia:</t>
+  </si>
+  <si>
+    <t>A:Aquiles/B:Hera/C:Agamenon</t>
+  </si>
+  <si>
+    <t>Musa da oratória e poesia sacra:</t>
+  </si>
+  <si>
+    <t>A:Clio/B:Polímnia/C:Urânia</t>
   </si>
 </sst>
 </file>
@@ -178,11 +238,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
@@ -204,6 +259,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bodoni MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bodoni MT"/>
@@ -251,22 +313,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,16 +659,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B08E78-FD8B-415A-9F82-296F25FB394D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="165.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
@@ -598,100 +676,100 @@
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -700,178 +778,366 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
+    <sortCondition ref="E26"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
